--- a/BusinessDataDriven/Book1.xlsx
+++ b/BusinessDataDriven/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Selenium(N)\BusinessDataDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F29168-86F2-4F36-AB00-F444A206871F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB00C4FF-6F90-4B78-895B-5B58EFFBCC05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{712CCF62-0705-4F7E-83D7-DF1FF1C2DBAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{712CCF62-0705-4F7E-83D7-DF1FF1C2DBAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Steps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>Test id</t>
   </si>
@@ -70,13 +71,91 @@
   </si>
   <si>
     <t>Test_forward</t>
+  </si>
+  <si>
+    <t>Step id</t>
+  </si>
+  <si>
+    <t>Step Description</t>
+  </si>
+  <si>
+    <t>action/method/keyword</t>
+  </si>
+  <si>
+    <t>webelement to be automated</t>
+  </si>
+  <si>
+    <t>Test data to be used</t>
+  </si>
+  <si>
+    <t>criteria</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>launch site</t>
+  </si>
+  <si>
+    <t>wait few seconds</t>
+  </si>
+  <si>
+    <t>click next</t>
+  </si>
+  <si>
+    <t>validate userid</t>
+  </si>
+  <si>
+    <t>fill userid</t>
+  </si>
+  <si>
+    <t>close site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">launch </t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>validate_userid</t>
+  </si>
+  <si>
+    <t>name~Email</t>
+  </si>
+  <si>
+    <t>id~next</t>
+  </si>
+  <si>
+    <t>https://accounts.google.com</t>
+  </si>
+  <si>
+    <t>biswajit.pradhan542</t>
+  </si>
+  <si>
+    <t>valid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +165,13 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -260,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -289,6 +375,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825F5B3C-A554-450F-A2F0-AF46C5DE1DAF}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,4 +810,200 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8B5458-D590-4238-95E7-D12A0E75950B}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>